--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H2">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I2">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J2">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.02418920250645</v>
+        <v>0.009519999999999999</v>
       </c>
       <c r="N2">
-        <v>1.02418920250645</v>
+        <v>0.02856</v>
       </c>
       <c r="O2">
-        <v>0.108406379246844</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="P2">
-        <v>0.108406379246844</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="Q2">
-        <v>155.0850550767414</v>
+        <v>2.173293645786667</v>
       </c>
       <c r="R2">
-        <v>155.0850550767414</v>
+        <v>19.55964281208</v>
       </c>
       <c r="S2">
-        <v>0.05779667628279025</v>
+        <v>0.000585154386887981</v>
       </c>
       <c r="T2">
-        <v>0.05779667628279025</v>
+        <v>0.0005851543868879811</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H3">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I3">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J3">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.42349468493661</v>
+        <v>1.079146666666667</v>
       </c>
       <c r="N3">
-        <v>8.42349468493661</v>
+        <v>3.23744</v>
       </c>
       <c r="O3">
-        <v>0.891593620753156</v>
+        <v>0.1086354338004839</v>
       </c>
       <c r="P3">
-        <v>0.891593620753156</v>
+        <v>0.1086354338004838</v>
       </c>
       <c r="Q3">
-        <v>1275.504695768168</v>
+        <v>246.3553144473244</v>
       </c>
       <c r="R3">
-        <v>1275.504695768168</v>
+        <v>2217.19783002592</v>
       </c>
       <c r="S3">
-        <v>0.4753516189036561</v>
+        <v>0.06633060988398549</v>
       </c>
       <c r="T3">
-        <v>0.4753516189036561</v>
+        <v>0.06633060988398549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.2876777858051</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H4">
-        <v>55.2876777858051</v>
+        <v>684.861443</v>
       </c>
       <c r="I4">
-        <v>0.1946644370259187</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J4">
-        <v>0.1946644370259187</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.02418920250645</v>
+        <v>8.844986</v>
       </c>
       <c r="N4">
-        <v>1.02418920250645</v>
+        <v>26.534958</v>
       </c>
       <c r="O4">
-        <v>0.108406379246844</v>
+        <v>0.8904062077467443</v>
       </c>
       <c r="P4">
-        <v>0.108406379246844</v>
+        <v>0.8904062077467442</v>
       </c>
       <c r="Q4">
-        <v>56.6250426198773</v>
+        <v>2019.1966250916</v>
       </c>
       <c r="R4">
-        <v>56.6250426198773</v>
+        <v>18172.7696258244</v>
       </c>
       <c r="S4">
-        <v>0.02110286678610512</v>
+        <v>0.543664113430964</v>
       </c>
       <c r="T4">
-        <v>0.02110286678610512</v>
+        <v>0.543664113430964</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H5">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I5">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J5">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>8.42349468493661</v>
+        <v>0.009519999999999999</v>
       </c>
       <c r="N5">
-        <v>8.42349468493661</v>
+        <v>0.02856</v>
       </c>
       <c r="O5">
-        <v>0.891593620753156</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="P5">
-        <v>0.891593620753156</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="Q5">
-        <v>465.7154599712172</v>
+        <v>0.5394052690133332</v>
       </c>
       <c r="R5">
-        <v>465.7154599712172</v>
+        <v>4.854647421119999</v>
       </c>
       <c r="S5">
-        <v>0.1735615702398136</v>
+        <v>0.0001452336457549403</v>
       </c>
       <c r="T5">
-        <v>0.1735615702398136</v>
+        <v>0.0001452336457549404</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.551596317104025</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H6">
-        <v>0.551596317104025</v>
+        <v>169.980652</v>
       </c>
       <c r="I6">
-        <v>0.001942135948458909</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J6">
-        <v>0.001942135948458909</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.02418920250645</v>
+        <v>1.079146666666667</v>
       </c>
       <c r="N6">
-        <v>1.02418920250645</v>
+        <v>3.23744</v>
       </c>
       <c r="O6">
-        <v>0.108406379246844</v>
+        <v>0.1086354338004839</v>
       </c>
       <c r="P6">
-        <v>0.108406379246844</v>
+        <v>0.1086354338004838</v>
       </c>
       <c r="Q6">
-        <v>0.5649389921202663</v>
+        <v>61.14468466787555</v>
       </c>
       <c r="R6">
-        <v>0.5649389921202663</v>
+        <v>550.30216201088</v>
       </c>
       <c r="S6">
-        <v>0.0002105399261775656</v>
+        <v>0.01646306772103901</v>
       </c>
       <c r="T6">
-        <v>0.0002105399261775656</v>
+        <v>0.01646306772103901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.551596317104025</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H7">
-        <v>0.551596317104025</v>
+        <v>169.980652</v>
       </c>
       <c r="I7">
-        <v>0.001942135948458909</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J7">
-        <v>0.001942135948458909</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.42349468493661</v>
+        <v>8.844986</v>
       </c>
       <c r="N7">
-        <v>8.42349468493661</v>
+        <v>26.534958</v>
       </c>
       <c r="O7">
-        <v>0.891593620753156</v>
+        <v>0.8904062077467443</v>
       </c>
       <c r="P7">
-        <v>0.891593620753156</v>
+        <v>0.8904062077467442</v>
       </c>
       <c r="Q7">
-        <v>4.646368645356364</v>
+        <v>501.1588290702907</v>
       </c>
       <c r="R7">
-        <v>4.646368645356364</v>
+        <v>4510.429461632616</v>
       </c>
       <c r="S7">
-        <v>0.001731596022281343</v>
+        <v>0.1349358785117024</v>
       </c>
       <c r="T7">
-        <v>0.001731596022281343</v>
+        <v>0.1349358785117024</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.619611583896011</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H8">
-        <v>0.619611583896011</v>
+        <v>1.940476</v>
       </c>
       <c r="I8">
-        <v>0.002181613426071994</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J8">
-        <v>0.002181613426071994</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.02418920250645</v>
+        <v>0.009519999999999999</v>
       </c>
       <c r="N8">
-        <v>1.02418920250645</v>
+        <v>0.02856</v>
       </c>
       <c r="O8">
-        <v>0.108406379246844</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="P8">
-        <v>0.108406379246844</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="Q8">
-        <v>0.6345994939742139</v>
+        <v>0.006157777173333332</v>
       </c>
       <c r="R8">
-        <v>0.6345994939742139</v>
+        <v>0.05541999455999999</v>
       </c>
       <c r="S8">
-        <v>0.0002365008124367673</v>
+        <v>1.657967543152874E-06</v>
       </c>
       <c r="T8">
-        <v>0.0002365008124367673</v>
+        <v>1.657967543152874E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.619611583896011</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H9">
-        <v>0.619611583896011</v>
+        <v>1.940476</v>
       </c>
       <c r="I9">
-        <v>0.002181613426071994</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J9">
-        <v>0.002181613426071994</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.42349468493661</v>
+        <v>1.079146666666667</v>
       </c>
       <c r="N9">
-        <v>8.42349468493661</v>
+        <v>3.23744</v>
       </c>
       <c r="O9">
-        <v>0.891593620753156</v>
+        <v>0.1086354338004839</v>
       </c>
       <c r="P9">
-        <v>0.891593620753156</v>
+        <v>0.1086354338004838</v>
       </c>
       <c r="Q9">
-        <v>5.219294883673204</v>
+        <v>0.6980194023822222</v>
       </c>
       <c r="R9">
-        <v>5.219294883673204</v>
+        <v>6.28217462144</v>
       </c>
       <c r="S9">
-        <v>0.001945112613635227</v>
+        <v>0.0001879401415582927</v>
       </c>
       <c r="T9">
-        <v>0.001945112613635227</v>
+        <v>0.0001879401415582927</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.742817901972584</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H10">
-        <v>0.742817901972584</v>
+        <v>1.940476</v>
       </c>
       <c r="I10">
-        <v>0.002615415124876029</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J10">
-        <v>0.002615415124876029</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.02418920250645</v>
+        <v>8.844986</v>
       </c>
       <c r="N10">
-        <v>1.02418920250645</v>
+        <v>26.534958</v>
       </c>
       <c r="O10">
-        <v>0.108406379246844</v>
+        <v>0.8904062077467443</v>
       </c>
       <c r="P10">
-        <v>0.108406379246844</v>
+        <v>0.8904062077467442</v>
       </c>
       <c r="Q10">
-        <v>0.7607860746288152</v>
+        <v>5.721161017778666</v>
       </c>
       <c r="R10">
-        <v>0.7607860746288152</v>
+        <v>51.490449160008</v>
       </c>
       <c r="S10">
-        <v>0.0002835276839152427</v>
+        <v>0.001540409633155627</v>
       </c>
       <c r="T10">
-        <v>0.0002835276839152427</v>
+        <v>0.001540409633155627</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.742817901972584</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H11">
-        <v>0.742817901972584</v>
+        <v>2.240248</v>
       </c>
       <c r="I11">
-        <v>0.002615415124876029</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J11">
-        <v>0.002615415124876029</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>8.42349468493661</v>
+        <v>0.009519999999999999</v>
       </c>
       <c r="N11">
-        <v>8.42349468493661</v>
+        <v>0.02856</v>
       </c>
       <c r="O11">
-        <v>0.891593620753156</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="P11">
-        <v>0.891593620753156</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="Q11">
-        <v>6.257122649141825</v>
+        <v>0.007109053653333333</v>
       </c>
       <c r="R11">
-        <v>6.257122649141825</v>
+        <v>0.06398148288000001</v>
       </c>
       <c r="S11">
-        <v>0.002331887440960786</v>
+        <v>1.914096578681282E-06</v>
       </c>
       <c r="T11">
-        <v>0.002331887440960786</v>
+        <v>1.914096578681283E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.39132174151879</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H12">
-        <v>75.39132174151879</v>
+        <v>2.240248</v>
       </c>
       <c r="I12">
-        <v>0.2654481032882279</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J12">
-        <v>0.2654481032882279</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.02418920250645</v>
+        <v>1.079146666666667</v>
       </c>
       <c r="N12">
-        <v>1.02418920250645</v>
+        <v>3.23744</v>
       </c>
       <c r="O12">
-        <v>0.108406379246844</v>
+        <v>0.1086354338004839</v>
       </c>
       <c r="P12">
-        <v>0.108406379246844</v>
+        <v>0.1086354338004838</v>
       </c>
       <c r="Q12">
-        <v>77.21497769035332</v>
+        <v>0.8058520539022223</v>
       </c>
       <c r="R12">
-        <v>77.21497769035332</v>
+        <v>7.252668485120002</v>
       </c>
       <c r="S12">
-        <v>0.02877626775541906</v>
+        <v>0.0002169738385044093</v>
       </c>
       <c r="T12">
-        <v>0.02877626775541906</v>
+        <v>0.0002169738385044094</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.39132174151879</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H13">
-        <v>75.39132174151879</v>
+        <v>2.240248</v>
       </c>
       <c r="I13">
-        <v>0.2654481032882279</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J13">
-        <v>0.2654481032882279</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.42349468493661</v>
+        <v>8.844986</v>
       </c>
       <c r="N13">
-        <v>8.42349468493661</v>
+        <v>26.534958</v>
       </c>
       <c r="O13">
-        <v>0.891593620753156</v>
+        <v>0.8904062077467443</v>
       </c>
       <c r="P13">
-        <v>0.891593620753156</v>
+        <v>0.8904062077467442</v>
       </c>
       <c r="Q13">
-        <v>635.0583979800294</v>
+        <v>6.604987398842668</v>
       </c>
       <c r="R13">
-        <v>635.0583979800294</v>
+        <v>59.44488658958402</v>
       </c>
       <c r="S13">
-        <v>0.2366718355328089</v>
+        <v>0.00177837788246679</v>
       </c>
       <c r="T13">
-        <v>0.2366718355328089</v>
+        <v>0.00177837788246679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8022086666666667</v>
+      </c>
+      <c r="H14">
+        <v>2.406626</v>
+      </c>
+      <c r="I14">
+        <v>0.002145598096919091</v>
+      </c>
+      <c r="J14">
+        <v>0.002145598096919091</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.009519999999999999</v>
+      </c>
+      <c r="N14">
+        <v>0.02856</v>
+      </c>
+      <c r="O14">
+        <v>0.0009583584527718872</v>
+      </c>
+      <c r="P14">
+        <v>0.0009583584527718872</v>
+      </c>
+      <c r="Q14">
+        <v>0.007637026506666666</v>
+      </c>
+      <c r="R14">
+        <v>0.06873323856000001</v>
+      </c>
+      <c r="S14">
+        <v>2.056252072433685E-06</v>
+      </c>
+      <c r="T14">
+        <v>2.056252072433686E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8022086666666667</v>
+      </c>
+      <c r="H15">
+        <v>2.406626</v>
+      </c>
+      <c r="I15">
+        <v>0.002145598096919091</v>
+      </c>
+      <c r="J15">
+        <v>0.002145598096919091</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.079146666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.23744</v>
+      </c>
+      <c r="O15">
+        <v>0.1086354338004839</v>
+      </c>
+      <c r="P15">
+        <v>0.1086354338004838</v>
+      </c>
+      <c r="Q15">
+        <v>0.8657008086044445</v>
+      </c>
+      <c r="R15">
+        <v>7.791307277440001</v>
+      </c>
+      <c r="S15">
+        <v>0.000233087980020298</v>
+      </c>
+      <c r="T15">
+        <v>0.0002330879800202981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8022086666666667</v>
+      </c>
+      <c r="H16">
+        <v>2.406626</v>
+      </c>
+      <c r="I16">
+        <v>0.002145598096919091</v>
+      </c>
+      <c r="J16">
+        <v>0.002145598096919091</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.844986</v>
+      </c>
+      <c r="N16">
+        <v>26.534958</v>
+      </c>
+      <c r="O16">
+        <v>0.8904062077467443</v>
+      </c>
+      <c r="P16">
+        <v>0.8904062077467442</v>
+      </c>
+      <c r="Q16">
+        <v>7.095524425745334</v>
+      </c>
+      <c r="R16">
+        <v>63.85971983170801</v>
+      </c>
+      <c r="S16">
+        <v>0.001910453864826359</v>
+      </c>
+      <c r="T16">
+        <v>0.001910453864826359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>86.74265433333333</v>
+      </c>
+      <c r="H17">
+        <v>260.227963</v>
+      </c>
+      <c r="I17">
+        <v>0.2320030707629401</v>
+      </c>
+      <c r="J17">
+        <v>0.2320030707629402</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.009519999999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.02856</v>
+      </c>
+      <c r="O17">
+        <v>0.0009583584527718872</v>
+      </c>
+      <c r="P17">
+        <v>0.0009583584527718872</v>
+      </c>
+      <c r="Q17">
+        <v>0.8257900692533332</v>
+      </c>
+      <c r="R17">
+        <v>7.432110623279999</v>
+      </c>
+      <c r="S17">
+        <v>0.0002223421039346979</v>
+      </c>
+      <c r="T17">
+        <v>0.000222342103934698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>86.74265433333333</v>
+      </c>
+      <c r="H18">
+        <v>260.227963</v>
+      </c>
+      <c r="I18">
+        <v>0.2320030707629401</v>
+      </c>
+      <c r="J18">
+        <v>0.2320030707629402</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.079146666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.23744</v>
+      </c>
+      <c r="O18">
+        <v>0.1086354338004839</v>
+      </c>
+      <c r="P18">
+        <v>0.1086354338004838</v>
+      </c>
+      <c r="Q18">
+        <v>93.60804628163557</v>
+      </c>
+      <c r="R18">
+        <v>842.4724165347201</v>
+      </c>
+      <c r="S18">
+        <v>0.02520375423537635</v>
+      </c>
+      <c r="T18">
+        <v>0.02520375423537636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>86.74265433333333</v>
+      </c>
+      <c r="H19">
+        <v>260.227963</v>
+      </c>
+      <c r="I19">
+        <v>0.2320030707629401</v>
+      </c>
+      <c r="J19">
+        <v>0.2320030707629402</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.844986</v>
+      </c>
+      <c r="N19">
+        <v>26.534958</v>
+      </c>
+      <c r="O19">
+        <v>0.8904062077467443</v>
+      </c>
+      <c r="P19">
+        <v>0.8904062077467442</v>
+      </c>
+      <c r="Q19">
+        <v>767.2375631811727</v>
+      </c>
+      <c r="R19">
+        <v>6905.138068630555</v>
+      </c>
+      <c r="S19">
+        <v>0.2065769744236291</v>
+      </c>
+      <c r="T19">
+        <v>0.2065769744236291</v>
       </c>
     </row>
   </sheetData>
